--- a/北航/方向模板.xlsx
+++ b/北航/方向模板.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(01)复杂电液系统与装备</t>
+          <t>不区分方向</t>
         </is>
       </c>
     </row>
@@ -485,7 +485,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>(003)自动化科学与电气工程学院</t>
+          <t>(004)能源与动力工程学院</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(02)新概念飞行器设计与控制</t>
+          <t>不区分方向</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>(003)自动化科学与电气工程学院</t>
+          <t>(005)航空科学与工程学院</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -517,7 +517,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(03)飞行器容错控制与可靠性</t>
+          <t>不区分方向</t>
         </is>
       </c>
     </row>
@@ -529,7 +529,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>(003)自动化科学与电气工程学院</t>
+          <t>(007)机械工程及自动化学院</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -539,7 +539,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>(04)智能装备与特种机器人</t>
+          <t>不区分方向</t>
         </is>
       </c>
     </row>
@@ -551,17 +551,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>(003)自动化科学与电气工程学院</t>
+          <t>(007)机械工程及自动化学院</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>(085500)(专业学位)机械</t>
+          <t>(085501)(专业学位)机械工程</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(05)气动节能与检测</t>
+          <t>不区分方向</t>
         </is>
       </c>
     </row>
@@ -573,17 +573,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>(004)能源与动力工程学院</t>
+          <t>(007)机械工程及自动化学院</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>(085500)(专业学位)机械</t>
+          <t>(085509)(专业学位)智能制造技术</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>(00)不区分研究方向</t>
+          <t>不区分方向</t>
         </is>
       </c>
     </row>
@@ -595,17 +595,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>(005)航空科学与工程学院</t>
+          <t>(007)机械工程及自动化学院</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>(085500)(专业学位)机械</t>
+          <t>(085510)(专业学位)机器人工程</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>(01)无人机设计</t>
+          <t>不区分方向</t>
         </is>
       </c>
     </row>
@@ -617,7 +617,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>(005)航空科学与工程学院</t>
+          <t>(010)生物与医学工程学院</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>(01)无人机设计</t>
+          <t>不区分方向</t>
         </is>
       </c>
     </row>
@@ -639,7 +639,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>(005)航空科学与工程学院</t>
+          <t>(013)交通科学与工程学院</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(02)固体力学</t>
+          <t>不区分方向</t>
         </is>
       </c>
     </row>
@@ -661,17 +661,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>(005)航空科学与工程学院</t>
+          <t>(015)宇航学院</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>(085500)(专业学位)机械</t>
+          <t>(085504)(专业学位)航天工程</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>(03)流体力学</t>
+          <t>不区分方向</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>(005)航空科学与工程学院</t>
+          <t>(024)中法工程师学院/国际通用工程学院</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>(04)飞行器设计</t>
+          <t>不区分方向</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>(005)航空科学与工程学院</t>
+          <t>(032)航空发动机研究院</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>(05)飞行力学与飞行安全</t>
+          <t>不区分方向</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>(005)航空科学与工程学院</t>
+          <t>(043)前沿科学技术创新研究院</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -737,7 +737,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>(06)动力学与控制</t>
+          <t>不区分方向</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>(007)机械工程及自动化学院</t>
+          <t>(DFJ)航空科学与技术国家实验室大飞机班</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -759,579 +759,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>(01)北航歌尔研究院联合培养</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>(007)机械工程及自动化学院</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>(085500)(专业学位)机械</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>(02)北航宁波创新研究院联合培养</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>(007)机械工程及自动化学院</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>(085501)(专业学位)机械工程</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>(01)智能制造技术与装备、微纳机电系统、微纳仿生与生物制造、工业智能控制</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>(007)机械工程及自动化学院</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>(085501)(专业学位)机械工程</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>(02)智能驱动感知及机器人系统、先进检测技术及机电一体化</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>(007)机械工程及自动化学院</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>(085501)(专业学位)机械工程</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>(03)航空宇航制造工程</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>(007)机械工程及自动化学院</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>(085501)(专业学位)机械工程</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>(04)智能机械系统设计理论与控制技术</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>(007)机械工程及自动化学院</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>(085501)(专业学位)机械工程</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>(05)材料加工工程（先进连接技术与装备、微纳加工与增材制造、智能材料与功能表面）</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>(007)机械工程及自动化学院</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>(085501)(专业学位)机械工程</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>(06)数字化设计与图形学</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>(007)机械工程及自动化学院</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>(085509)(专业学位)智能制造技术</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>(01)数字化设计与制造</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>(007)机械工程及自动化学院</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>(085509)(专业学位)智能制造技术</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>(02)智能制造系统与企业信息化</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>(007)机械工程及自动化学院</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>(085509)(专业学位)智能制造技术</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>(03)工业软件</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>(007)机械工程及自动化学院</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>(085509)(专业学位)智能制造技术</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>(04)机器人化制造</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>(007)机械工程及自动化学院</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>(085510)(专业学位)机器人工程</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>(00)不区分研究方向</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>(010)生物与医学工程学院</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>(085500)(专业学位)机械</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>(01)生物医学工程</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>(013)交通科学与工程学院</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>(085500)(专业学位)机械</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>(00)不区分研究方向</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>(015)宇航学院</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>(085504)(专业学位)航天工程</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>(00)不区分研究方向</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>(024)中法工程师学院/国际通用工程学院</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>(085500)(专业学位)机械</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>(01)国际通用工程师</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>(032)航空发动机研究院</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>(085500)(专业学位)机械</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>(00)不区分研究方向</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>(043)前沿科学技术创新研究院</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>(085500)(专业学位)机械</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>(00)不区分研究方向</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>(DFJ)航空科学与技术国家实验室大飞机班</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>(085500)(专业学位)机械</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>(01)大型飞机空气动力学</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>(DFJ)航空科学与技术国家实验室大飞机班</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>(085500)(专业学位)机械</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>(02)大型飞机材料与结构</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>(DFJ)航空科学与技术国家实验室大飞机班</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>(085500)(专业学位)机械</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>(03)大型飞机导航通信</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>(DFJ)航空科学与技术国家实验室大飞机班</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>(085500)(专业学位)机械</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>(04)大型飞机控制</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>(DFJ)航空科学与技术国家实验室大飞机班</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>(085500)(专业学位)机械</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>(05)大型飞机设计</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>(DFJ)航空科学与技术国家实验室大飞机班</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>(085500)(专业学位)机械</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>(06)大型飞机推进系统</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>(DFJ)航空科学与技术国家实验室大飞机班</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>(085500)(专业学位)机械</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>(07)大型飞机制造</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>(10006)北京航空航天大学</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>(DFJ)航空科学与技术国家实验室大飞机班</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>(085500)(专业学位)机械</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>(08)大型飞机人机与环境工程</t>
+          <t>不区分方向</t>
         </is>
       </c>
     </row>
